--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachitnagpal/chatbot_spj/chatbot_for_spjain/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C42CBC15-ECFA-C948-9FA4-32D024B76650}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3416,8 +3422,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3480,6 +3486,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3526,7 +3540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3558,9 +3572,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3592,6 +3624,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3767,14 +3817,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3799,7 +3851,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3813,7 +3865,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3827,7 +3879,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3841,7 +3893,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3855,7 +3907,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3869,7 +3921,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3883,7 +3935,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3897,7 +3949,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3911,7 +3963,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3925,7 +3977,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3939,7 +3991,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3953,7 +4005,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3967,7 +4019,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3981,7 +4033,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3995,7 +4047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4009,7 +4061,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4023,7 +4075,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4037,7 +4089,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4051,7 +4103,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4065,7 +4117,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4079,7 +4131,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4093,7 +4145,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4107,7 +4159,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4121,7 +4173,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4135,7 +4187,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4149,7 +4201,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4163,7 +4215,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4177,7 +4229,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4191,7 +4243,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4205,7 +4257,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4219,7 +4271,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4233,7 +4285,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4247,7 +4299,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4261,7 +4313,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4275,7 +4327,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4289,7 +4341,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4303,7 +4355,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4317,7 +4369,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4331,7 +4383,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4345,7 +4397,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4359,7 +4411,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4373,7 +4425,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4387,7 +4439,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4401,7 +4453,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4415,7 +4467,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4429,7 +4481,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4443,7 +4495,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4457,7 +4509,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4471,7 +4523,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4485,7 +4537,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4499,7 +4551,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4513,7 +4565,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4527,7 +4579,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4541,7 +4593,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4555,7 +4607,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4569,7 +4621,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4583,7 +4635,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4597,7 +4649,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4611,7 +4663,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4625,7 +4677,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4639,7 +4691,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4653,7 +4705,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4667,7 +4719,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4681,7 +4733,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4695,7 +4747,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4709,7 +4761,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4723,7 +4775,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4737,7 +4789,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4751,7 +4803,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4765,7 +4817,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4779,7 +4831,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4793,7 +4845,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4807,7 +4859,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4821,7 +4873,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4835,7 +4887,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4849,7 +4901,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4863,7 +4915,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4877,7 +4929,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4891,7 +4943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4905,7 +4957,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4919,7 +4971,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4933,7 +4985,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4947,7 +4999,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4961,7 +5013,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4975,7 +5027,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4989,7 +5041,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5003,7 +5055,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5017,7 +5069,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5031,7 +5083,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5059,7 +5111,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5073,7 +5125,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5087,7 +5139,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5101,7 +5153,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5115,7 +5167,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5129,7 +5181,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5143,7 +5195,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5157,7 +5209,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5171,7 +5223,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5185,7 +5237,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5199,7 +5251,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5213,7 +5265,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5227,7 +5279,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5241,7 +5293,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5255,7 +5307,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5269,7 +5321,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5283,7 +5335,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5297,7 +5349,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5311,7 +5363,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5339,7 +5391,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5353,7 +5405,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5367,7 +5419,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5381,7 +5433,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5395,7 +5447,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5409,7 +5461,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5423,7 +5475,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5437,7 +5489,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5451,7 +5503,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5465,7 +5517,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5479,7 +5531,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5493,7 +5545,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5507,7 +5559,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5521,7 +5573,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5535,7 +5587,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5549,7 +5601,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5563,7 +5615,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5577,7 +5629,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5591,7 +5643,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5619,7 +5671,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5633,7 +5685,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5647,7 +5699,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5661,7 +5713,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5675,7 +5727,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5689,7 +5741,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5703,7 +5755,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5717,7 +5769,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5731,7 +5783,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5745,7 +5797,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5759,7 +5811,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5773,7 +5825,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5787,7 +5839,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5801,7 +5853,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5815,7 +5867,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5843,7 +5895,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5857,7 +5909,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5871,7 +5923,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5885,7 +5937,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5899,7 +5951,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5913,7 +5965,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5927,7 +5979,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5941,7 +5993,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5955,7 +6007,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5983,7 +6035,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5997,7 +6049,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6011,7 +6063,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6025,7 +6077,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6039,7 +6091,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6053,7 +6105,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6067,7 +6119,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6081,7 +6133,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6095,7 +6147,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6109,7 +6161,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6123,7 +6175,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6137,7 +6189,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6151,7 +6203,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6165,7 +6217,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6179,7 +6231,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6193,7 +6245,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6207,7 +6259,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6221,7 +6273,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6235,7 +6287,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6249,7 +6301,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6263,7 +6315,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6277,7 +6329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6291,7 +6343,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6305,7 +6357,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6319,7 +6371,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6333,7 +6385,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6347,7 +6399,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6361,7 +6413,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6375,7 +6427,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6389,7 +6441,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6403,7 +6455,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6417,7 +6469,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6431,7 +6483,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6445,7 +6497,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6459,7 +6511,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6473,7 +6525,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6487,7 +6539,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6501,7 +6553,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6515,7 +6567,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6529,7 +6581,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6543,7 +6595,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6557,7 +6609,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6571,7 +6623,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6585,7 +6637,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6599,7 +6651,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6613,7 +6665,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6627,7 +6679,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6641,7 +6693,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6655,7 +6707,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6669,7 +6721,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6683,7 +6735,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6697,7 +6749,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6711,7 +6763,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6725,7 +6777,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6739,7 +6791,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6753,7 +6805,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6767,7 +6819,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6781,7 +6833,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6795,7 +6847,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6809,7 +6861,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6823,7 +6875,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6837,7 +6889,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6851,7 +6903,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6865,7 +6917,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6879,7 +6931,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6893,7 +6945,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6907,7 +6959,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6921,7 +6973,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6935,7 +6987,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6949,7 +7001,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6963,7 +7015,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6977,7 +7029,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6991,7 +7043,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7005,7 +7057,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7019,7 +7071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7033,7 +7085,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7047,7 +7099,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7061,7 +7113,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7075,7 +7127,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7089,7 +7141,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7103,7 +7155,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7117,7 +7169,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7131,7 +7183,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7145,7 +7197,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7159,7 +7211,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7173,7 +7225,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7187,7 +7239,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7201,7 +7253,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7215,7 +7267,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7229,7 +7281,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7243,7 +7295,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7257,7 +7309,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7271,7 +7323,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7285,7 +7337,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7299,7 +7351,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7313,7 +7365,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7327,7 +7379,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7341,7 +7393,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7355,7 +7407,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7369,7 +7421,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7383,7 +7435,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7397,7 +7449,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7411,7 +7463,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7425,7 +7477,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7439,7 +7491,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7453,7 +7505,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7467,7 +7519,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7481,7 +7533,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7495,7 +7547,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7509,7 +7561,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7523,7 +7575,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7537,7 +7589,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7551,7 +7603,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7565,7 +7617,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7579,7 +7631,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7593,7 +7645,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7607,7 +7659,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7621,7 +7673,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7635,7 +7687,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7649,7 +7701,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7663,7 +7715,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7677,7 +7729,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7691,7 +7743,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7705,7 +7757,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7719,7 +7771,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7733,7 +7785,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7747,7 +7799,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7761,7 +7813,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7775,7 +7827,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7789,7 +7841,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7803,7 +7855,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7817,7 +7869,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7831,7 +7883,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7845,7 +7897,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7859,7 +7911,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7873,7 +7925,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7887,7 +7939,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7901,7 +7953,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7915,7 +7967,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7929,7 +7981,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7943,7 +7995,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7957,7 +8009,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7971,7 +8023,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7985,7 +8037,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7999,7 +8051,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8013,7 +8065,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8027,7 +8079,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8041,7 +8093,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8055,7 +8107,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8069,7 +8121,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -8083,7 +8135,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8097,7 +8149,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8111,7 +8163,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8125,7 +8177,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -8139,7 +8191,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8153,7 +8205,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8167,7 +8219,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8181,7 +8233,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8195,7 +8247,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8209,7 +8261,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8223,7 +8275,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8237,7 +8289,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8251,7 +8303,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8265,7 +8317,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8279,7 +8331,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8293,7 +8345,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8307,7 +8359,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8321,7 +8373,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8335,7 +8387,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8349,7 +8401,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8363,7 +8415,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -8377,7 +8429,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8391,7 +8443,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8405,7 +8457,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8419,7 +8471,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8433,7 +8485,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8447,7 +8499,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8461,7 +8513,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8475,7 +8527,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8489,7 +8541,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8503,7 +8555,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8517,7 +8569,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8531,7 +8583,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8545,7 +8597,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8559,7 +8611,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8573,7 +8625,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8587,7 +8639,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8601,7 +8653,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8615,7 +8667,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8629,7 +8681,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8643,7 +8695,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8657,7 +8709,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8671,7 +8723,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8685,7 +8737,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8699,7 +8751,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8713,7 +8765,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8727,7 +8779,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8741,7 +8793,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8755,7 +8807,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8769,7 +8821,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8783,7 +8835,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8797,7 +8849,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8811,7 +8863,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8825,7 +8877,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8839,7 +8891,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8853,7 +8905,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8867,7 +8919,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8881,7 +8933,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8895,7 +8947,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8909,7 +8961,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8923,7 +8975,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8937,7 +8989,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8951,7 +9003,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8965,7 +9017,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8979,7 +9031,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8993,7 +9045,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -9007,7 +9059,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9073,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9049,7 +9101,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9063,7 +9115,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9077,7 +9129,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9091,7 +9143,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9105,7 +9157,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9119,7 +9171,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9133,7 +9185,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9147,7 +9199,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9161,7 +9213,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9175,7 +9227,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9189,7 +9241,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9203,7 +9255,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9217,7 +9269,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9231,7 +9283,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9245,7 +9297,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9259,7 +9311,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9273,7 +9325,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9287,7 +9339,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9301,7 +9353,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9315,7 +9367,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9329,7 +9381,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9343,7 +9395,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9357,7 +9409,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9371,7 +9423,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9385,7 +9437,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9399,7 +9451,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9413,7 +9465,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9427,7 +9479,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9441,7 +9493,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9455,7 +9507,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9469,7 +9521,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9483,7 +9535,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9497,7 +9549,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9511,7 +9563,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9525,7 +9577,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9539,7 +9591,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9553,7 +9605,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9567,7 +9619,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9581,7 +9633,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9595,7 +9647,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9609,7 +9661,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -9623,7 +9675,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -9637,7 +9689,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -9651,7 +9703,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -9665,7 +9717,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -9679,7 +9731,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -9693,7 +9745,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -9707,7 +9759,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -9721,7 +9773,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -9735,7 +9787,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -9749,7 +9801,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -9763,7 +9815,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -9777,7 +9829,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -9791,7 +9843,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -9805,7 +9857,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -9819,7 +9871,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -9833,7 +9885,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -9847,7 +9899,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -9861,7 +9913,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -9875,7 +9927,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -9889,7 +9941,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -9903,7 +9955,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -9917,7 +9969,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -9931,7 +9983,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -9945,7 +9997,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -9959,7 +10011,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -9973,7 +10025,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -9987,7 +10039,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10001,7 +10053,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10015,7 +10067,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10029,7 +10081,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10043,7 +10095,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10057,7 +10109,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10071,7 +10123,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10085,7 +10137,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10099,7 +10151,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10113,7 +10165,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10127,7 +10179,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10141,7 +10193,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10155,7 +10207,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10169,7 +10221,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10183,7 +10235,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10197,7 +10249,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10211,7 +10263,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10225,7 +10277,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -10239,7 +10291,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -10253,7 +10305,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -10267,7 +10319,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -10281,7 +10333,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -10295,7 +10347,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -10309,7 +10361,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -10323,7 +10375,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -10337,7 +10389,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -10351,7 +10403,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -10365,7 +10417,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -10379,7 +10431,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -10393,7 +10445,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -10407,7 +10459,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -10421,7 +10473,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -10435,7 +10487,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -10449,7 +10501,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -10463,7 +10515,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -10477,7 +10529,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -10491,7 +10543,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -10505,7 +10557,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -10519,7 +10571,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -10533,7 +10585,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -10547,7 +10599,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -10561,7 +10613,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -10575,7 +10627,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -10589,7 +10641,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -10603,7 +10655,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -10617,7 +10669,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -10631,7 +10683,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -10645,7 +10697,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -10659,7 +10711,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -10673,7 +10725,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -10687,7 +10739,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -10701,7 +10753,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -10715,7 +10767,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -10729,7 +10781,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -10743,7 +10795,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -10757,7 +10809,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -10771,7 +10823,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -10785,7 +10837,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -10799,7 +10851,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -10813,7 +10865,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -10827,7 +10879,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -10841,7 +10893,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -10855,7 +10907,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -10869,7 +10921,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -10883,7 +10935,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -10897,7 +10949,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -10911,7 +10963,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -10925,7 +10977,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -10939,7 +10991,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -10953,7 +11005,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -10967,7 +11019,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -10981,7 +11033,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -10995,7 +11047,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -11009,7 +11061,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -11023,7 +11075,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -11037,7 +11089,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -11051,7 +11103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -11065,7 +11117,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -11079,7 +11131,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -11093,7 +11145,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -11121,7 +11173,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -11135,7 +11187,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -11149,7 +11201,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -11163,7 +11215,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -11177,7 +11229,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -11191,7 +11243,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -11205,7 +11257,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -11219,7 +11271,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -11233,7 +11285,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -11247,7 +11299,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -11261,7 +11313,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -11275,7 +11327,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -11289,7 +11341,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -11303,7 +11355,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -11317,7 +11369,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -11331,7 +11383,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -11345,7 +11397,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -11359,7 +11411,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -11373,7 +11425,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -11387,7 +11439,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -11401,7 +11453,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -11415,7 +11467,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -11429,7 +11481,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -11443,7 +11495,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -11457,7 +11509,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -11471,7 +11523,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -11485,7 +11537,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -11499,7 +11551,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -11513,7 +11565,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -11527,7 +11579,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -11541,7 +11593,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -11555,7 +11607,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -11569,7 +11621,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -11583,7 +11635,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -11597,7 +11649,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -11611,7 +11663,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -11625,7 +11677,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -11639,7 +11691,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -11653,7 +11705,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -11667,7 +11719,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -11681,7 +11733,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -11695,7 +11747,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -11709,7 +11761,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -11723,7 +11775,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -11737,7 +11789,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -11751,7 +11803,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -11765,7 +11817,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -11779,7 +11831,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -11793,7 +11845,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -11807,7 +11859,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -11821,7 +11873,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -11835,7 +11887,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -11849,7 +11901,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -11863,7 +11915,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -11877,7 +11929,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -11891,7 +11943,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -11905,7 +11957,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -11919,7 +11971,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -11933,7 +11985,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -11947,7 +11999,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -11961,7 +12013,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -11975,7 +12027,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -11989,7 +12041,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12003,7 +12055,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12017,7 +12069,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -12031,7 +12083,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12045,7 +12097,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12059,7 +12111,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12073,7 +12125,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -12087,7 +12139,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -12101,7 +12153,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12115,7 +12167,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -12129,7 +12181,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -12143,7 +12195,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12157,7 +12209,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12171,7 +12223,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -12185,7 +12237,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12199,7 +12251,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12213,7 +12265,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -12227,7 +12279,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12241,7 +12293,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -12255,7 +12307,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -12269,7 +12321,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -12283,7 +12335,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -12297,7 +12349,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -12311,7 +12363,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -12325,7 +12377,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -12339,7 +12391,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -12353,7 +12405,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -12367,7 +12419,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -12381,7 +12433,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -12395,7 +12447,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -12409,7 +12461,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -12423,7 +12475,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -12437,7 +12489,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -12451,7 +12503,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -12465,7 +12517,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -12479,7 +12531,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -12493,7 +12545,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -12507,7 +12559,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -12521,7 +12573,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -12535,7 +12587,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -12549,7 +12601,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -12563,7 +12615,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -12577,7 +12629,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -12591,7 +12643,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -12605,7 +12657,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -12619,7 +12671,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
